--- a/program_directory/interpreterAccounting/万科A：2014年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/万科A：2014年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="无形资产情况" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="173">
   <si>
     <t>项目</t>
   </si>
@@ -302,6 +302,30 @@
   </si>
   <si>
     <t>1,923,868,889.89</t>
+  </si>
+  <si>
+    <t>现金及现金等价物年末余额</t>
+  </si>
+  <si>
+    <t>61,653,319,666.30</t>
+  </si>
+  <si>
+    <t>43,004,149,172.53</t>
+  </si>
+  <si>
+    <t>减：现金及现金等价物年初余额</t>
+  </si>
+  <si>
+    <t>51,120,223,950.88</t>
+  </si>
+  <si>
+    <t>现金及现金等价物净增加/(减少)额</t>
+  </si>
+  <si>
+    <t>18,649,170,493.77</t>
+  </si>
+  <si>
+    <t>(8,116,074,778.35)</t>
   </si>
   <si>
     <t>资产</t>
@@ -519,9 +543,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -534,21 +558,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,17 +572,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +587,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -596,22 +597,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,6 +618,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -642,7 +634,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,8 +655,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,9 +693,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,181 +716,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,17 +907,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,21 +944,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -939,6 +954,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,15 +984,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -977,151 +992,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1701,15 +1725,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.2222222222222" style="1" customWidth="true"/>
+    <col min="1" max="1" width="28" style="1" customWidth="true"/>
     <col min="2" max="3" width="17.8888888888889" style="1" customWidth="true"/>
     <col min="4" max="5" width="14" style="1" customWidth="true"/>
     <col min="6" max="16384" width="8.88888888888889" style="1"/>
@@ -1910,6 +1934,39 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1980,7 @@
   <sheetPr/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
@@ -1936,21 +1993,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1958,7 +2015,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1972,7 +2029,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1986,7 +2043,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2000,7 +2057,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2014,7 +2071,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2028,7 +2085,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2042,7 +2099,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -2056,7 +2113,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2">
         <v>464805697453.18</v>
@@ -2067,7 +2124,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -2075,7 +2132,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -2089,7 +2146,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -2103,7 +2160,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -2117,7 +2174,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -2131,7 +2188,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -2145,7 +2202,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -2159,7 +2216,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B18">
         <v>14</v>
@@ -2173,7 +2230,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -2187,7 +2244,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B20">
         <v>16</v>
@@ -2201,7 +2258,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2215,7 +2272,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2">
         <v>43603057962.47</v>
@@ -2226,21 +2283,21 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -2248,7 +2305,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B25">
         <v>18</v>
@@ -2262,7 +2319,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -2276,7 +2333,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -2290,7 +2347,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -2304,7 +2361,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B29">
         <v>21</v>
@@ -2318,7 +2375,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B30">
         <v>22</v>
@@ -2332,7 +2389,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B31">
         <v>23</v>
@@ -2346,7 +2403,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -2360,7 +2417,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B33">
         <v>25</v>
@@ -2374,7 +2431,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -2382,7 +2439,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B35">
         <v>26</v>
@@ -2391,12 +2448,12 @@
         <v>20449288272.85</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2">
         <v>345654030971.64</v>
@@ -2407,7 +2464,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -2415,7 +2472,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B38">
         <v>27</v>
@@ -2429,7 +2486,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B39">
         <v>28</v>
@@ -2443,7 +2500,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B40">
         <v>29</v>
@@ -2457,7 +2514,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B41">
         <v>30</v>
@@ -2471,7 +2528,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -2485,7 +2542,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2">
         <v>46861107524.04</v>
@@ -2496,7 +2553,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2">
         <v>392515138495.68</v>
@@ -2507,7 +2564,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -2515,7 +2572,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B46">
         <v>31</v>
@@ -2524,12 +2581,12 @@
         <v>11037507242</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B47">
         <v>32</v>
@@ -2538,12 +2595,12 @@
         <v>8493632222.15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B48">
         <v>33</v>
@@ -2552,12 +2609,12 @@
         <v>561814972.97</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B49">
         <v>34</v>
@@ -2566,12 +2623,12 @@
         <v>26078775789.93</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B50">
         <v>35</v>
@@ -2580,19 +2637,19 @@
         <v>41992839682.3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C52" s="2">
         <v>88164569909.35</v>
@@ -2603,40 +2660,40 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
